--- a/資料.xlsx
+++ b/資料.xlsx
@@ -10,6 +10,17 @@
     <sheet name="概要_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="概要_2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="概要_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="概要_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="概要_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="概要_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="概要_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="概要_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="概要_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="概要_10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="概要_11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="概要_12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="概要_13" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="概要_14" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,6 +438,96 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -461,4 +562,112 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>